--- a/results/FrequencyTables/25808449_T3.xlsx
+++ b/results/FrequencyTables/25808449_T3.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
+        <v>0.00577200577200577</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -474,34 +474,34 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>0.994949494949495</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="H2">
-        <v>0.96</v>
+        <v>0.993506493506494</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="M2">
-        <v>0.07</v>
+        <v>0.00721500721500722</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00144300144300144</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.06</v>
+        <v>0.00505050505050505</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00144300144300144</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.997835497835498</v>
       </c>
       <c r="T2">
-        <v>0.9</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="U2">
-        <v>0.08</v>
+        <v>0.00577200577200577</v>
       </c>
       <c r="V2">
-        <v>0.96</v>
+        <v>0.994227994227994</v>
       </c>
       <c r="W2">
-        <v>0.04</v>
+        <v>0.00432900432900433</v>
       </c>
       <c r="X2">
-        <v>0.04</v>
+        <v>0.00288600288600289</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,40 +539,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>0.991341991341991</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <v>0.00144300144300144</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="F3">
-        <v>0.06</v>
+        <v>0.00505050505050505</v>
       </c>
       <c r="G3">
-        <v>0.97</v>
+        <v>0.993506493506494</v>
       </c>
       <c r="H3">
-        <v>0.04</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9</v>
+        <v>0.990620490620491</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -584,25 +584,25 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.94</v>
+        <v>0.992784992784993</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="U3">
-        <v>0.92</v>
+        <v>0.992063492063492</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00144300144300144</v>
       </c>
       <c r="W3">
-        <v>0.01</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,43 +613,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="C4">
-        <v>0.06</v>
+        <v>0.00577200577200577</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="F4">
-        <v>0.9</v>
+        <v>0.991341991341991</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="I4">
-        <v>0.95</v>
+        <v>0.996392496392496</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.991341991341991</v>
       </c>
       <c r="L4">
-        <v>0.97</v>
+        <v>0.994227994227994</v>
       </c>
       <c r="M4">
-        <v>0.03</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>0.997113997113997</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.997835497835498</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.08</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="V4">
-        <v>0.04</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="W4">
-        <v>0.95</v>
+        <v>0.994227994227994</v>
       </c>
       <c r="X4">
-        <v>0.94</v>
+        <v>0.995670995670996</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,13 +687,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.94</v>
+        <v>0.990620490620491</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="D5">
-        <v>0.98</v>
+        <v>0.997835497835498</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,28 +702,28 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.03</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.96</v>
+        <v>0.995670995670996</v>
       </c>
       <c r="K5">
-        <v>0.06</v>
+        <v>0.00505050505050505</v>
       </c>
       <c r="L5">
-        <v>0.03</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -732,28 +732,28 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.02</v>
+        <v>0.00144300144300144</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="X5">
-        <v>0.02</v>
+        <v>0.00144300144300144</v>
       </c>
     </row>
   </sheetData>
